--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560352/JX560352_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560352/JX560352_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89325261538</v>
+        <v>45441.83350534249</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1790_1791del']</t>
+          <t>['1806_1893insgttgcaatccgtttcaatggggattccctttcaaggagacctccgccgggcggttatatatgcggattatcgctagcaaatctgcgc', '2016_2061instagtagcattcaggtgcatgtcctgatggcaccacattgtataga', '1970_2014insgaaggtcctatacctcgactaattaagaaaatgttattcaacgg', '1872_1923del', '1923_2014insagcgttccacgagatgcgtctgtttaagcatcgaactattactgcacttaagtagagataacgcggaggctgtttccgttccgtccatacc']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89325263854</v>
+        <v>45441.83350536563</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['667g&gt;t']</t>
+          <t>['672_697del', '685_725del', '605_656insgccggatcttctggcaatgttctgggtaactggcgatgaacgctcaatagt', '647_705del', '663_684insgaccctctcgcccaaatgaaa']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89325266171</v>
+        <v>45441.83350538879</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3572_3574del']</t>
+          <t>['3654_3782del', '3589_3643del', '3588_3631del', '3623_3766del', '3627_3657insatgattataaaaagcatgccggcctgaaaa']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89325278343</v>
+        <v>45441.83350542929</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1811_1816insagcac']</t>
+          <t>['1850_1900del', '1829_1899inscatcttcgaggtgagtttgacggtgagaggagactctagcaaccaaggatggttactcctcattataccc', '1916_1974insaggcgtgagtgaagttgcccgctaatccttcgcccggcaaggctatcgcactgctcgc', '2014_2066insgccctgataccccgaccaacacaagtacataaaagacgcacgatagagcaag', '1957_1987del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['624_625insg']</t>
+          <t>['697_803instgcgcacgaactgaatatccaggtgtacttgtttggtcttatagtgttataggatgaagcattatctacggactgcgcgtatcccttccttgtctaattaacttcg', '640_657inscaagacgatttctgggt', '606_741insaaataggggagctcgaaacgggcgaactgcatagttaatgtcggatggcgctctttagacggaattcctatctcatcggggcgacgttacggattggatagcttccagcgtacgagcctattaagttccggtttt', '668_781instaacctatcccatagcagcccttaccccacatcagacggcccgctgttcgcttcaaagtacgcgtggaacaaagtgaaattgcgagctgtattgctactacccaacaatagcc', '628_683insgatttggttgccacgataaaggatttgcggtttcaaatacattaaactattcagt']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8932528008</v>
+        <v>45441.83350545245</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1994c&gt;a']</t>
+          <t>['1841_1882del', '1858_2008insccgtggacacttcgcatcatacacaaggggggtcatcataaaatcggtcctttgcaggatatgaccccttcgtatcaatatagatgtagacatcgaactggtcactttcgggttgataaagagagccttttagatttttgagcgttggct', '1784_1841insttgatatgcataggtattggaaccgcgtgagcgttagtaccctatatttgtgatatc', '1867_1986del', '1951_2099insggtaatacgaggcagatcgcatggtgaagtgggctccagatctctcctctataacgataggtttgaagtatatagtagaggggaggttcccgttttacacagcgatatatatatcgcattggtctatctctatgcccatcgtccatgg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3618_3621del']</t>
+          <t>['3609_3629insggctcatgtacctccatcga', '3616_3642del', '3573_3695del', '3616_3650instacttctgatgcctgtccttttctcactaggccc', '3598_3664del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.893252824</v>
+        <v>45441.83350548138</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['637a&gt;c']</t>
+          <t>['603_651insaaattctgtataggcggaagcttcatctgcactaagccgtgtcatttg', '623_765del', '611_722del', '606_709instcacatcgtgtctttatacttcttcccgcgcgtacggagtggttaaacaagccagccaggagtcaaatgtttacgattgtcgacaccaaaagtttattaaaaa', '680_774del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3604_3607insgga']</t>
+          <t>['3574_3717del', '3667_3796del', '3601_3746del', '3668_3695instcctcacgcctctgaggttggaaccta', '3612_3621del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89325284138</v>
+        <v>45441.83350550454</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1785g&gt;c']</t>
+          <t>['1880_1978del', '1786_1911instgatggtatttagtctctgtgcagtgactctctggcggttccttcatgacatagaagataacttgctgacagtgtctatggcctgctacctgtaggagagaaaaggtggagtagaggcaacaaaa', '1803_1857insgatctacaccaggccacggaggagcgtgtgcatccgtatcaacttcttattagt', '1933_2025insctgcttgcccttcagcctagtgtaaaacagcatgtaccggcgtccttgttgagtatgtaagcgacatgacttctagcccagtgaggcggaca', '1873_1887del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['690_693del']</t>
+          <t>['687_822del', '611_637instcgagattgtcagcagcgcgccccgc', '682_745inscttcctcgaccctcgacgtcttatggtaggcgccccaagggcatgcataattcttgggtacga', '683_773inscgcagcgcggatctagtctgtcgactcaaaatcaaacttggtagtaataagtacgaagcgattcatgttcctaccggaatgtaacaaacg', '658_717inscgattaatggtgcttccctgacgaacataaacgcaagtcagcttcgataacgagtccca']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3658_3661del']</t>
+          <t>['3627_3683insactgtcgagaaagggcttactgagataggagccacataagtagacaactcgttgca', '3646_3660insgtagcaaaacatag', '3628_3681del', '3569_3664del', '3631_3647insgacacgtgctatatgg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89325286452</v>
+        <v>45441.8335055277</v>
       </c>
     </row>
   </sheetData>
